--- a/input_xlsx/Flora 001.xlsx
+++ b/input_xlsx/Flora 001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Biodiverskripsi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,7 +899,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2049,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2078,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2917,133 +2912,133 @@
     <t>UNIPA</t>
   </si>
   <si>
-    <t>UNIPA-2000PAD-AF001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE002</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE003</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE004</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE005</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE006</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-VE007</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM002</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM003</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM004</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM005</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM006</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM007</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM008</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM009</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM010</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM011</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM012</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM013</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM014</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM015</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM016</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM017</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM018</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM019</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM020</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM021</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM022</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM023</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM024</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM025</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM026</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM027</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM028</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM029</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM030</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM031</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PAD-AF001-PM001-EM032</t>
+    <t>UNIPA-2000PD-AF001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE002</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE003</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE004</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE005</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE006</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-VE007</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM002</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM003</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM004</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM005</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM006</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM007</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM008</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM009</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM010</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM011</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM012</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM013</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM014</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM015</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM016</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM017</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM018</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM019</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM020</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM021</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM022</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM023</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM024</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM025</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM026</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM027</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM028</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM029</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM030</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM031</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AF001-PM001-EM032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3748,30 +3743,30 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="13.25" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
     <col min="20" max="20" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3833,7 +3828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -3889,7 +3884,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -3962,32 +3957,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="188.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="188.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -4087,7 +4082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -4134,7 +4129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -4181,7 +4176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4228,7 +4223,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -4369,7 +4364,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -4456,7 +4451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -4498,7 +4493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -4582,7 +4577,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -4624,7 +4619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -4666,7 +4661,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -4708,7 +4703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -4750,7 +4745,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -4792,7 +4787,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -4834,7 +4829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -4876,7 +4871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -4960,7 +4955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5002,7 +4997,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -5086,7 +5081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -5128,7 +5123,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -5170,7 +5165,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -5212,7 +5207,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -5254,7 +5249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -5296,7 +5291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -5338,7 +5333,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -5380,7 +5375,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -5422,7 +5417,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -5464,7 +5459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5506,7 +5501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -5548,7 +5543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -5632,7 +5627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -5716,7 +5711,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N46" t="s">
         <v>85</v>
       </c>
@@ -5737,26 +5732,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="68.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5788,7 +5783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -5832,20 +5827,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>

--- a/input_xlsx/Flora 001.xlsx
+++ b/input_xlsx/Flora 001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8130" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="8130" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -2909,130 +2909,130 @@
     <t>UNIPA</t>
   </si>
   <si>
-    <t>UNIPA-2000PAD-AF001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE002</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE003</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE004</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE005</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE006</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-VE007</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM001</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM002</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM003</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM004</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM005</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM006</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM007</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM008</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM009</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM010</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM011</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM012</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM013</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM014</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM015</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM016</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM017</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM018</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM019</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM020</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM021</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM022</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM023</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM024</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM025</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM026</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM027</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM028</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM029</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM030</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM031</t>
-  </si>
-  <si>
-    <t>UNIPA-2000PD-AF001-PM001-EM032</t>
+    <t>UNIPA-2000PD-AM001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE002</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE003</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE004</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE005</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE006</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-VE007</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM001</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM002</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM003</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM004</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM005</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM006</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM007</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM008</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM009</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM010</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM011</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM012</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM013</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM014</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM015</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM016</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM017</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM018</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM019</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM020</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM021</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM022</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM023</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM024</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM025</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM026</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM027</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM028</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM029</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM030</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM031</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PD-AM001-PM001-EM032</t>
+  </si>
+  <si>
+    <t>UNIPA-2000PAD-AM001</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3743,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>56</v>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -3957,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD1048576"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4037,10 +4037,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>94</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>94</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>94</v>
@@ -4453,10 +4453,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>94</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>94</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>94</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
         <v>94</v>
@@ -4873,10 +4873,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>94</v>
@@ -4915,10 +4915,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
         <v>94</v>
@@ -4999,10 +4999,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>94</v>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
         <v>94</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
         <v>94</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
         <v>94</v>
@@ -5251,10 +5251,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
         <v>94</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
         <v>94</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>94</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>94</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
         <v>94</v>
@@ -5461,10 +5461,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>94</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
         <v>94</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
         <v>94</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
         <v>94</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>94</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
         <v>94</v>
@@ -5727,9 +5727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>96</v>
